--- a/Lab02/Docs/Lab02_BBT_TCs_Form.xlsx
+++ b/Lab02/Docs/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1043" documentId="11_2045D75CC96C8D1C46027EDC7D058E94E8FD69B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AE28081-7ED1-4B28-8A74-B27897ECDAF1}"/>
+  <xr:revisionPtr revIDLastSave="1048" documentId="11_2045D75CC96C8D1C46027EDC7D058E94E8FD69B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C4FD03F-481B-4C1D-8423-3EB126EB6C3E}"/>
   <bookViews>
-    <workbookView xWindow="-78" yWindow="0" windowWidth="11676" windowHeight="12318" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -535,9 +535,6 @@
   </si>
   <si>
     <t>TC6_BVA</t>
-  </si>
-  <si>
-    <t>not necessary</t>
   </si>
 </sst>
 </file>
@@ -1344,6 +1341,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1359,74 +1377,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1455,14 +1413,77 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1470,164 +1491,140 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1956,12 +1953,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
       <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
@@ -1969,11 +1966,11 @@
       <c r="J1" s="32"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="H3" s="2"/>
@@ -2103,19 +2100,19 @@
     </row>
     <row r="24" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="31"/>
@@ -2160,30 +2157,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="33"/>
@@ -2194,22 +2191,22 @@
       <c r="G5" s="35"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="G6" s="76" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="G6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
@@ -2224,52 +2221,52 @@
       <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="58" t="s">
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="58"/>
+      <c r="N7" s="83"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="58" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="63" t="s">
+      <c r="G8" s="65"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="59" t="s">
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="61"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>52</v>
@@ -2281,22 +2278,22 @@
       <c r="H9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="48">
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="55">
         <v>45000</v>
       </c>
-      <c r="N9" s="48"/>
+      <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="81" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -2304,28 +2301,28 @@
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="4" t="str">
-        <f t="shared" ref="G10:G15" si="0">"TC" &amp; ROW(F2) &amp; "_ECP"</f>
+        <f t="shared" ref="G10:G14" si="0">"TC" &amp; ROW(F2) &amp; "_ECP"</f>
         <v>TC2_ECP</v>
       </c>
       <c r="H10" s="2">
         <v>2</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="53" t="s">
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="54"/>
+      <c r="N10" s="57"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>84</v>
@@ -2337,22 +2334,22 @@
       <c r="H11" s="41">
         <v>4</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="80" t="s">
         <v>88</v>
       </c>
       <c r="J11" s="69"/>
       <c r="K11" s="69"/>
       <c r="L11" s="70"/>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="N11" s="54"/>
+      <c r="N11" s="57"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="81" t="s">
         <v>83</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -2372,16 +2369,16 @@
       <c r="J12" s="69"/>
       <c r="K12" s="69"/>
       <c r="L12" s="70"/>
-      <c r="M12" s="53" t="s">
+      <c r="M12" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="54"/>
+      <c r="N12" s="57"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="4">
         <v>8</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>86</v>
@@ -2393,22 +2390,22 @@
       <c r="H13" s="2">
         <v>7</v>
       </c>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="53" t="s">
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="54"/>
+      <c r="N13" s="57"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="4">
         <v>9</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="4"/>
@@ -2420,30 +2417,30 @@
       <c r="H14" s="43">
         <v>8</v>
       </c>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="53" t="s">
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="N14" s="54"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4">
         <v>10</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74"/>
       <c r="M15" s="42"/>
       <c r="N15" s="39"/>
     </row>
@@ -2451,17 +2448,17 @@
       <c r="B16" s="4">
         <v>11</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="10"/>
       <c r="H16" s="43"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="74"/>
       <c r="M16" s="42"/>
       <c r="N16" s="39"/>
     </row>
@@ -2469,15 +2466,15 @@
       <c r="B17" s="4">
         <v>12</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="10"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="51"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="74"/>
       <c r="M17" s="42"/>
       <c r="N17" s="39"/>
     </row>
@@ -2485,17 +2482,17 @@
       <c r="B18" s="4">
         <v>13</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="10"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="74"/>
       <c r="M18" s="42"/>
       <c r="N18" s="39"/>
     </row>
@@ -2503,7 +2500,7 @@
       <c r="B19" s="4">
         <v>14</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
@@ -2511,11 +2508,29 @@
       <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
@@ -2531,25 +2546,7 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="I12:L12"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2585,42 +2582,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
     </row>
     <row r="6" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4" t="s">
@@ -2633,57 +2630,57 @@
         <v>22</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="63" t="s">
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="65"/>
+      <c r="P6" s="77"/>
     </row>
     <row r="7" spans="2:16" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="55">
+      <c r="B7" s="81">
         <v>1</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="88" t="s">
         <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="59" t="s">
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="59" t="s">
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="61"/>
+      <c r="P7" s="86"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="56"/>
-      <c r="C8" s="88"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="2" t="s">
         <v>73</v>
       </c>
@@ -2700,20 +2697,20 @@
       <c r="J8" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="K8" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="83" t="s">
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="54"/>
+      <c r="P8" s="57"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="56"/>
-      <c r="C9" s="88"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="2" t="s">
         <v>74</v>
       </c>
@@ -2730,20 +2727,20 @@
       <c r="J9" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="53">
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="56">
         <v>0</v>
       </c>
-      <c r="P9" s="54"/>
+      <c r="P9" s="57"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="56"/>
-      <c r="C10" s="88"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="2" t="s">
         <v>75</v>
       </c>
@@ -2760,20 +2757,20 @@
       <c r="J10" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="53" t="s">
+      <c r="K10" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="53">
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="56">
         <v>3600</v>
       </c>
-      <c r="P10" s="54"/>
+      <c r="P10" s="57"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="56"/>
-      <c r="C11" s="88"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="2" t="s">
         <v>64</v>
       </c>
@@ -2790,21 +2787,21 @@
       <c r="J11" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="53" t="s">
+      <c r="K11" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="53">
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="56">
         <f>23*3600</f>
         <v>82800</v>
       </c>
-      <c r="P11" s="54"/>
+      <c r="P11" s="57"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="57"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="2"/>
       <c r="G12" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2819,22 +2816,22 @@
       <c r="J12" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="53" t="s">
+      <c r="K12" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="83" t="s">
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="54"/>
+      <c r="P12" s="57"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="55">
+      <c r="B13" s="81">
         <v>2</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="81" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2853,20 +2850,20 @@
       <c r="J13" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="53" t="s">
+      <c r="K13" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="83" t="s">
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="54"/>
+      <c r="P13" s="57"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="2" t="s">
         <v>77</v>
       </c>
@@ -2883,20 +2880,20 @@
       <c r="J14" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="K14" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="83" t="s">
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="54"/>
+      <c r="P14" s="57"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="2" t="s">
         <v>78</v>
       </c>
@@ -2913,20 +2910,20 @@
       <c r="J15" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="53" t="s">
+      <c r="K15" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="86" t="s">
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="P15" s="54"/>
+      <c r="P15" s="57"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="2" t="s">
         <v>79</v>
       </c>
@@ -2943,20 +2940,20 @@
       <c r="J16" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="53" t="s">
+      <c r="K16" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="86" t="s">
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="P16" s="54"/>
+      <c r="P16" s="57"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
@@ -2973,20 +2970,20 @@
       <c r="J17" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="83" t="s">
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="54"/>
+      <c r="P17" s="57"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="2"/>
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
@@ -2996,14 +2993,14 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="82"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="95"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="55">
+      <c r="B19" s="81">
         <v>3</v>
       </c>
-      <c r="C19" s="87"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="2"/>
       <c r="G19" s="10"/>
       <c r="H19" s="9"/>
@@ -3013,12 +3010,12 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="82"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="95"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="56"/>
-      <c r="C20" s="88"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="2"/>
       <c r="G20" s="10"/>
       <c r="H20" s="9"/>
@@ -3028,12 +3025,12 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="82"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="95"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="56"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="2"/>
       <c r="G21" s="10"/>
       <c r="H21" s="9"/>
@@ -3043,12 +3040,12 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="82"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="95"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="56"/>
-      <c r="C22" s="88"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="2"/>
       <c r="G22" s="10"/>
       <c r="H22" s="9"/>
@@ -3058,12 +3055,12 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="82"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="95"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="56"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="2"/>
       <c r="G23" s="10"/>
       <c r="H23" s="9"/>
@@ -3073,12 +3070,12 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="82"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="95"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="57"/>
-      <c r="C24" s="89"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="2"/>
       <c r="G24" s="10"/>
       <c r="H24" s="9"/>
@@ -3088,14 +3085,14 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="82"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="95"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="55">
+      <c r="B25" s="81">
         <v>4</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="88" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -3109,60 +3106,95 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="82"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="95"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="56"/>
-      <c r="C26" s="88"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="56"/>
-      <c r="C27" s="88"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="56"/>
-      <c r="C28" s="88"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="56"/>
-      <c r="C29" s="88"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="89"/>
       <c r="D29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
       <c r="N29" s="25"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="57"/>
-      <c r="C30" s="89"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3179,41 +3211,6 @@
     <mergeCell ref="G5:P5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="O19:P19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3229,7 +3226,7 @@
   <dimension ref="B1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3246,71 +3243,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="102" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="58" t="s">
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="58"/>
+      <c r="N4" s="83"/>
     </row>
     <row r="5" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="108"/>
-      <c r="C5" s="119"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="110"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="91" t="s">
+      <c r="E5" s="101"/>
+      <c r="F5" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="93"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="133"/>
       <c r="M5" s="12" t="s">
         <v>18</v>
       </c>
@@ -3322,7 +3319,7 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="105" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -3331,16 +3328,16 @@
       <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="F6" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="121">
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="44">
         <v>45000</v>
       </c>
       <c r="N6" s="11">
@@ -3352,22 +3349,22 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="107"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="135" t="s">
+      <c r="F7" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="137"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="128"/>
       <c r="M7" s="7" t="s">
         <v>61</v>
       </c>
@@ -3380,22 +3377,22 @@
         <f t="shared" ref="B8:B16" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="107"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="135" t="s">
+      <c r="F8" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="137"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="128"/>
       <c r="M8" s="7" t="s">
         <v>61</v>
       </c>
@@ -3408,22 +3405,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="107"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="16" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="135" t="s">
+      <c r="F9" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="137"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="128"/>
       <c r="M9" s="7" t="s">
         <v>61</v>
       </c>
@@ -3437,23 +3434,23 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="107"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="E10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="124" t="s">
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="47" t="s">
         <v>61</v>
       </c>
       <c r="N10" s="7" t="s">
@@ -3465,20 +3462,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="107"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="7" t="s">
         <v>61</v>
       </c>
@@ -3492,23 +3489,23 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="107"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="130" t="s">
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="48" t="s">
         <v>61</v>
       </c>
       <c r="N12" s="7">
@@ -3521,22 +3518,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="107"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="77"/>
       <c r="M13" s="7">
         <f>13*3600+59*60</f>
         <v>50340</v>
@@ -3551,26 +3548,26 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="107"/>
+      <c r="C14" s="105"/>
       <c r="D14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="122" t="s">
+      <c r="E14" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="131" t="s">
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="N14" s="122">
+      <c r="N14" s="45">
         <f>15*3600+60*60</f>
         <v>57600</v>
       </c>
@@ -3580,27 +3577,27 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="138" t="s">
+      <c r="C15" s="106"/>
+      <c r="D15" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="122" t="s">
+      <c r="E15" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="131">
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="49">
         <f>13*3600+1*60</f>
         <v>46860</v>
       </c>
-      <c r="N15" s="122">
+      <c r="N15" s="45">
         <f>13*3600+1*60</f>
         <v>46860</v>
       </c>
@@ -3610,42 +3607,42 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="138" t="s">
+      <c r="C16" s="106"/>
+      <c r="D16" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="122" t="s">
+      <c r="E16" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="131" t="s">
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="122">
+      <c r="N16" s="45">
         <f>13*3600-60</f>
         <v>46740</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="7"/>
-      <c r="C17" s="128"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="19"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="127"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
@@ -3676,98 +3673,98 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="2:16" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="100" t="s">
+      <c r="C21" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="103"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
       <c r="G21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="100" t="s">
+      <c r="H21" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="101"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="100" t="s">
+      <c r="I21" s="120"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="101"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="103"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="119"/>
     </row>
     <row r="22" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="98" t="s">
+      <c r="D22" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="99" t="s">
+      <c r="F22" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="117" t="s">
+      <c r="G22" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="113" t="s">
+      <c r="H22" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="114"/>
-      <c r="J22" s="77" t="s">
+      <c r="I22" s="122"/>
+      <c r="J22" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="77" t="s">
+      <c r="K22" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="96" t="s">
+      <c r="L22" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="M22" s="104" t="s">
+      <c r="M22" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="98" t="s">
+      <c r="N22" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="98" t="s">
+      <c r="O22" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="P22" s="99" t="s">
+      <c r="P22" s="116" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="111"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="99"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="116"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="23" t="s">
@@ -3788,28 +3785,57 @@
       <c r="G24" s="27">
         <v>4</v>
       </c>
-      <c r="H24" s="94" t="s">
+      <c r="H24" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="95"/>
+      <c r="I24" s="112"/>
       <c r="J24" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K24" s="21">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L24" s="22">
         <v>0</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="N24" s="2">
+        <v>6</v>
+      </c>
+      <c r="O24" s="21">
+        <v>6</v>
+      </c>
       <c r="P24" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="M4:N4"/>
@@ -3820,37 +3846,12 @@
     <mergeCell ref="C6:C17"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="K22:K23"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="F14:L14"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
     <mergeCell ref="F5:L5"/>
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3859,6 +3860,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4002,22 +4018,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4033,21 +4051,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>